--- a/Project1.xlsx
+++ b/Project1.xlsx
@@ -12,7 +12,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -2970,12 +2969,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2984,6 +2977,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3289,8 +3288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D135" sqref="D135"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3379,18 +3378,18 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="39" t="s">
         <v>209</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="38" t="s">
         <v>210</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="37"/>
-      <c r="B13" s="40" t="s">
+      <c r="A13" s="40"/>
+      <c r="B13" s="38" t="s">
         <v>211</v>
       </c>
       <c r="C13" s="4"/>
@@ -3470,7 +3469,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="37" t="s">
         <v>236</v>
       </c>
       <c r="B20" s="4"/>
@@ -4598,7 +4597,7 @@
       <c r="H82" s="4"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="38" t="s">
+      <c r="A83" s="36" t="s">
         <v>143</v>
       </c>
       <c r="B83" s="4"/>
